--- a/biology/Botanique/Xanthocercis_zambesiaca/Xanthocercis_zambesiaca.xlsx
+++ b/biology/Botanique/Xanthocercis_zambesiaca/Xanthocercis_zambesiaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xanthocercis zambesiaca, larbre nyala ou mshatu, est une espèce de légumineuses de la famille des Fabaceae qui est originaire des régions subtropicales méridionales de l'Afrique. On le trouve dans les vallées fluviales basses et saisonnières du Botswana, du Malawi, du Mozambique, de l'Afrique du Sud, de la Zambie et du Zimbabwe[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xanthocercis zambesiaca, larbre nyala ou mshatu, est une espèce de légumineuses de la famille des Fabaceae qui est originaire des régions subtropicales méridionales de l'Afrique. On le trouve dans les vallées fluviales basses et saisonnières du Botswana, du Malawi, du Mozambique, de l'Afrique du Sud, de la Zambie et du Zimbabwe.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les arbres « nyala » sont des phréatophytes qui indiquent la présence d'eau souterraine. Ils poussent sur des alluvions ou des termitières où ils ont accès à une humidité abondante et à un sol profond et fertile. Ils sont rares dans l'est du lowveld de l'Afrique australe, mais sont plus prolifiques dans la vallée du Limpopo (fleuve) et le long de la rivière Shashe, où ils sont connus sous le nom d'arbres « mshatu ».
 </t>
@@ -542,11 +556,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le feuillage et les fruits, qui mûrissent en automne et en hiver, fournissent de la nourriture à divers vertébrés.
-Le bois d'un arbre nyala peut être travaillé, finissant avec un aspect lisse, mais irrite le nez et la gorge au passage[2].
-Les plantes de ce genre accumulent dans leurs feuilles de l'acide hydroxypipécolique et des iminosucres[3].
+Le bois d'un arbre nyala peut être travaillé, finissant avec un aspect lisse, mais irrite le nez et la gorge au passage.
+Les plantes de ce genre accumulent dans leurs feuilles de l'acide hydroxypipécolique et des iminosucres.
 			feuilles imparipennées
 			fleurs en gros plan
 			inflorescences avec des fruits verts
